--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/建设用地预审-导入.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/建设用地预审-导入.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>{Form=8}</t>
   </si>
@@ -56,57 +56,15 @@
   <si>
     <t xml:space="preserve">          {Node=111}</t>
   </si>
-  <si>
-    <t>分区建设用地预审情况（亩）</t>
-  </si>
-  <si>
-    <t>预审件数（件）</t>
-  </si>
-  <si>
-    <t>预审面积</t>
-  </si>
-  <si>
-    <t>{Area=1}</t>
-  </si>
-  <si>
-    <t>{Value=1 Node=105}</t>
-  </si>
-  <si>
-    <t>{RateValue=1 Node=106}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Area=2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          {Area=9}</t>
-  </si>
-  <si>
-    <t>{Area=3}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Area=10}</t>
-  </si>
-  <si>
-    <t>{Area=5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Area=11}</t>
-  </si>
-  <si>
-    <t>{Area=4}</t>
-  </si>
-  <si>
-    <t>{Area=6}</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -143,27 +101,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -172,40 +109,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,43 +229,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -262,25 +237,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,19 +271,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,157 +427,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,35 +483,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,6 +512,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -593,17 +557,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,137 +585,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -790,9 +748,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1115,10 +1070,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D11" sqref="$A11:$XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1226,7 +1181,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" ht="15" spans="1:4">
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
@@ -1238,141 +1193,12 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" ht="15" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/建设用地预审-导入.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/建设用地预审-导入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830"/>
+    <workbookView windowWidth="19005" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
-  <si>
-    <t>{Form=8}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+  <si>
+    <t>建设用地预审</t>
   </si>
   <si>
     <t>建设用地预审情况（亩）</t>
@@ -27,10 +27,10 @@
     <t>{Quarter}季度</t>
   </si>
   <si>
-    <t>{Rate}同比%</t>
-  </si>
-  <si>
-    <t>{Node=105}</t>
+    <t>同比%</t>
+  </si>
+  <si>
+    <t>预审件数（件）</t>
   </si>
   <si>
     <t>{Value=1}</t>
@@ -39,22 +39,55 @@
     <t>{RateValue=1}</t>
   </si>
   <si>
-    <t>{Node=106}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Node=107}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Node=108}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          {Node=109}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          {Node=110}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          {Node=111}</t>
+    <t>预审面积</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：耕地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：能源用地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          交通用地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          水利用地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          其他用地</t>
+  </si>
+  <si>
+    <t>分区建设用地预审情况（亩）</t>
+  </si>
+  <si>
+    <t>市本级</t>
+  </si>
+  <si>
+    <t>其中：新城</t>
+  </si>
+  <si>
+    <t>产业集聚区</t>
+  </si>
+  <si>
+    <t>定海区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：金塘</t>
+  </si>
+  <si>
+    <t>普陀区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：六横</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          朱家尖</t>
+  </si>
+  <si>
+    <t>岱山县</t>
+  </si>
+  <si>
+    <t>嵊泗县</t>
   </si>
 </sst>
 </file>
@@ -62,22 +95,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF0099FF"/>
       <name val="黑体"/>
       <charset val="134"/>
     </font>
@@ -95,7 +135,82 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,8 +224,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,120 +277,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -244,7 +284,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,8 +293,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0099FF"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="12"/>
       </patternFill>
     </fill>
     <fill>
@@ -265,19 +317,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,91 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,67 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +515,25 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF0099FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,11 +562,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,45 +617,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -573,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,169 +637,172 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -806,6 +861,7 @@
     <mruColors>
       <color rgb="000066FF"/>
       <color rgb="000000FF"/>
+      <color rgb="000099FF"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -1070,20 +1126,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="$A11:$XFD22"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="29.375" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="21" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1237,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="15" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
@@ -1193,12 +1249,99 @@
       </c>
       <c r="D10" s="2"/>
     </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
